--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,18 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
@@ -67,18 +70,18 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
@@ -88,316 +91,310 @@
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>pie</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>good</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>anyone</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>ice</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
-    <t>well</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>handle</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -758,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -827,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -845,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9655172413793104</v>
@@ -877,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C4">
         <v>24</v>
@@ -895,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4905660377358491</v>
+        <v>0.65</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -945,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -977,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3720930232558139</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1019,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1027,37 +1024,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3265306122448979</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F7">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8544891640866873</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L7">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="M7">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1891891891891892</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1119,12 +1116,36 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.145945945945946</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>158</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.7954545454545454</v>
@@ -1150,16 +1171,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7402597402597403</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7316017316017316</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7288135593220338</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7111111111111111</v>
+        <v>0.703125</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L15">
         <v>27</v>
       </c>
-      <c r="K15">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L15">
-        <v>51</v>
-      </c>
       <c r="M15">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,12 +1322,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0.6857142857142857</v>
@@ -1332,16 +1353,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6749598715890851</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L17">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="M17">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.65625</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6514285714285715</v>
+        <v>0.68</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1405,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6461538461538462</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1431,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1462,16 +1483,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1483,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6326530612244898</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1509,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6324786324786325</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L24">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1535,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.631578947368421</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1561,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6078431372549019</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1587,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6056338028169014</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1613,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.6052631578947368</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1639,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5897435897435898</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1665,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5882352941176471</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1691,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5802469135802469</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1717,21 +1738,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5769230769230769</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1743,21 +1764,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5737704918032787</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1769,21 +1790,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5692307692307692</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1795,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5662650602409639</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1821,21 +1842,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5555555555555556</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1847,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5535714285714286</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1873,21 +1894,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.55</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1899,21 +1920,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.5449101796407185</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L39">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M39">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1925,21 +1946,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.5416666666666666</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1951,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.492063492063492</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1977,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4897959183673469</v>
+        <v>0.49</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2003,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4887218045112782</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L43">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M43">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2029,21 +2050,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4727272727272727</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2055,47 +2076,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4545454545454545</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N45">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.4516129032258064</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2107,21 +2128,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.446078431372549</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L47">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M47">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2133,21 +2154,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4457831325301205</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L48">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2159,21 +2180,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.4202334630350195</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L49">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M49">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2185,21 +2206,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.4078947368421053</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2211,21 +2232,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.4054054054054054</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2237,21 +2258,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.3984962406015037</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M52">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2263,21 +2284,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3970588235294117</v>
+        <v>0.3689986282578875</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2286,24 +2307,24 @@
         <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>41</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3840877914951989</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L54">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2312,24 +2333,24 @@
         <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>449</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3796296296296297</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L55">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2341,21 +2362,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3762376237623762</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2367,21 +2388,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3666666666666666</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2393,21 +2414,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3636363636363636</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L58">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="M58">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2419,21 +2440,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3611111111111111</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L59">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2445,21 +2466,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.3453237410071943</v>
+        <v>0.3272335844994618</v>
       </c>
       <c r="L60">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="M60">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2471,21 +2492,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>91</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.3384615384615385</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2497,21 +2518,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.3238095238095238</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="L62">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2523,21 +2544,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.3214285714285715</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="L63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2549,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.3207750269106566</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L64">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2575,21 +2596,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>631</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.3194444444444444</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2601,21 +2622,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.3178807947019868</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="L66">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M66">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2627,21 +2648,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.3176470588235294</v>
+        <v>0.2887417218543046</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2653,21 +2674,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>58</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.3063063063063063</v>
+        <v>0.2821316614420062</v>
       </c>
       <c r="L68">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M68">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2679,21 +2700,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>77</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2821192052980133</v>
+        <v>0.28</v>
       </c>
       <c r="L69">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="M69">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2705,21 +2726,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>542</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2751677852348993</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="L70">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2731,21 +2752,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2635658914728682</v>
+        <v>0.2714468629961588</v>
       </c>
       <c r="L71">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="M71">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2754,24 +2775,24 @@
         <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>95</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2586427656850192</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L72">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="M72">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2780,24 +2801,24 @@
         <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>579</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.2564102564102564</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L73">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M73">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2809,21 +2830,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2538461538461538</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L74">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2835,21 +2856,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2507836990595611</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L75">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2861,64 +2882,64 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>239</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.2429378531073446</v>
+        <v>0.2303523035230352</v>
       </c>
       <c r="L77">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="M77">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>134</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K78">
         <v>0.2295081967213115</v>
@@ -2944,68 +2965,68 @@
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.2183098591549296</v>
+        <v>0.2241758241758242</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="M79">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>111</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.2137404580152672</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L80">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.2110091743119266</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L81">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M81">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3017,47 +3038,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.2079207920792079</v>
+        <v>0.2066420664206642</v>
       </c>
       <c r="L82">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M82">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N82">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.2068126520681265</v>
+        <v>0.2061068702290076</v>
       </c>
       <c r="L83">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="M83">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3069,41 +3090,41 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>326</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>0.2059620596205962</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="L84">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M84">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="N84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.2</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L85">
         <v>33</v>
@@ -3121,21 +3142,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1958762886597938</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="L86">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M86">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3147,21 +3168,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K87">
-        <v>0.1951219512195122</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L87">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="M87">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3173,21 +3194,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>132</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K88">
-        <v>0.1901840490797546</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="L88">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M88">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3199,73 +3220,73 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>132</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K89">
-        <v>0.189873417721519</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="L89">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M89">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N89">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K90">
-        <v>0.1895910780669145</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L90">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M90">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N90">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>218</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1861575178997613</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="L91">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="M91">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3277,47 +3298,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>341</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K92">
-        <v>0.1846153846153846</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="L92">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="M92">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="N92">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>371</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K93">
-        <v>0.1734317343173432</v>
+        <v>0.1670644391408115</v>
       </c>
       <c r="L93">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="M93">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3329,21 +3350,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>224</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K94">
-        <v>0.1722689075630252</v>
+        <v>0.1656441717791411</v>
       </c>
       <c r="L94">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M94">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3355,21 +3376,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>197</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K95">
-        <v>0.1704545454545454</v>
+        <v>0.1653225806451613</v>
       </c>
       <c r="L95">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M95">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3381,21 +3402,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>365</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K96">
-        <v>0.1666666666666667</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L96">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M96">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3407,21 +3428,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K97">
-        <v>0.1475409836065574</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="L97">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M97">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3433,47 +3454,47 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K98">
-        <v>0.1449275362318841</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="L98">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M98">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N98">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K99">
-        <v>0.1330645161290323</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="L99">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M99">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3485,47 +3506,47 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>215</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K100">
-        <v>0.1323741007194245</v>
+        <v>0.1305595408895265</v>
       </c>
       <c r="L100">
+        <v>91</v>
+      </c>
+      <c r="M100">
         <v>92</v>
       </c>
-      <c r="M100">
-        <v>95</v>
-      </c>
       <c r="N100">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O100">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K101">
-        <v>0.1297709923664122</v>
+        <v>0.1224299065420561</v>
       </c>
       <c r="L101">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="M101">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="N101">
         <v>0.98</v>
@@ -3537,73 +3558,73 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>342</v>
+        <v>939</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K102">
-        <v>0.1297297297297297</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L102">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M102">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>161</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K103">
-        <v>0.1274601686972821</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="L103">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="M103">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="N103">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>931</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K104">
-        <v>0.09926470588235294</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L104">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M104">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3615,293 +3636,241 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>245</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K105">
-        <v>0.09282700421940929</v>
+        <v>0.104602510460251</v>
       </c>
       <c r="L105">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M105">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N105">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K106">
-        <v>0.08892763731473409</v>
+        <v>0.09057301293900184</v>
       </c>
       <c r="L106">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="M106">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="N106">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="O106">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>1045</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K107">
-        <v>0.08759124087591241</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L107">
         <v>36</v>
       </c>
       <c r="M107">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N107">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="O107">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K108">
-        <v>0.08516483516483517</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="L108">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M108">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N108">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O108">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>333</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K109">
-        <v>0.0851063829787234</v>
+        <v>0.07309941520467836</v>
       </c>
       <c r="L109">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M109">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N109">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O109">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>473</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K110">
-        <v>0.08502772643253234</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L110">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M110">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N110">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O110">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>495</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K111">
-        <v>0.07849829351535836</v>
+        <v>0.06462882096069869</v>
       </c>
       <c r="L111">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="M111">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="N111">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="O111">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>270</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K112">
-        <v>0.07202216066481995</v>
+        <v>0.06267029972752043</v>
       </c>
       <c r="L112">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M112">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N112">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="O112">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K113">
-        <v>0.06976744186046512</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="L113">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M113">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N113">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="O113">
-        <v>0.04000000000000004</v>
+        <v>0.28</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="10:17">
-      <c r="J114" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K114">
-        <v>0.03952569169960474</v>
-      </c>
-      <c r="L114">
-        <v>30</v>
-      </c>
-      <c r="M114">
-        <v>38</v>
-      </c>
-      <c r="N114">
-        <v>0.79</v>
-      </c>
-      <c r="O114">
-        <v>0.21</v>
-      </c>
-      <c r="P114" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q114">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K115">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="L115">
-        <v>26</v>
-      </c>
-      <c r="M115">
-        <v>33</v>
-      </c>
-      <c r="N115">
-        <v>0.79</v>
-      </c>
-      <c r="O115">
-        <v>0.21</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>702</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
